--- a/DOC/総合テスト/総合試験障害管理表.xlsx
+++ b/DOC/総合テスト/総合試験障害管理表.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\emsm\DOC\総合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\総合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A22D622-4F2A-4D48-A2AD-94880DFAF703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46832F9B-5079-49D2-A4A9-A06A88AF0F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="25170" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
     <sheet name="シート2" sheetId="2" r:id="rId2"/>
     <sheet name="シート3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -32,7 +32,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -45,7 +44,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -58,7 +56,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -71,7 +68,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -84,11 +80,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="98">
   <si>
     <t>検出部門</t>
   </si>
   <si>
+    <t>回答部門</t>
+  </si>
+  <si>
+    <t>横展開観点</t>
+  </si>
+  <si>
+    <t>確認状況</t>
+  </si>
+  <si>
+    <t>ステータス</t>
+  </si>
+  <si>
+    <t>故障振り返り</t>
+  </si>
+  <si>
     <t>項番</t>
   </si>
   <si>
@@ -119,9 +130,6 @@
     <t>備考</t>
   </si>
   <si>
-    <t>回答部門</t>
-  </si>
-  <si>
     <t>詳細.原因</t>
   </si>
   <si>
@@ -140,34 +148,25 @@
     <t>解決日</t>
   </si>
   <si>
-    <t>横展開観点</t>
-  </si>
-  <si>
     <t>有無</t>
   </si>
   <si>
     <t>内容</t>
   </si>
   <si>
-    <t>確認状況</t>
-  </si>
-  <si>
     <t>確認者</t>
   </si>
   <si>
     <t>確認日</t>
   </si>
   <si>
-    <t>ステータス</t>
-  </si>
-  <si>
-    <t>故障振り返り</t>
-  </si>
-  <si>
     <t>何があれば、よかったか</t>
   </si>
   <si>
     <t>改善策</t>
+  </si>
+  <si>
+    <t>総合</t>
   </si>
   <si>
     <t>要対応</t>
@@ -186,23 +185,230 @@
 </t>
   </si>
   <si>
-    <t>総合</t>
+    <t>相</t>
+  </si>
+  <si>
+    <t>EMSM_総合テストエビデンス_社員機能.xlsx</t>
+  </si>
+  <si>
+    <t>No.2</t>
+  </si>
+  <si>
+    <t>「登録」ボタンをクリックし、在籍タイプと作成日/更新日の挿入が必要。</t>
+  </si>
+  <si>
+    <t>ソースコードが漏れ</t>
+  </si>
+  <si>
+    <t>ファイルにソースコードを追加</t>
+  </si>
+  <si>
+    <t>employeeInfoEdit.jsp,EmployeInfoServiceImpl.java,EmployeeInfoMapper.xml</t>
+  </si>
+  <si>
+    <t>フン</t>
+  </si>
+  <si>
+    <t>完了</t>
+  </si>
+  <si>
+    <t>無</t>
+  </si>
+  <si>
+    <t>エラーが発生した場合、入力の全項目がnull。</t>
+  </si>
+  <si>
+    <t>EmployeeInfoController.java</t>
+  </si>
+  <si>
+    <t>No.3</t>
+  </si>
+  <si>
+    <t>部門項目は新規/更新漏れ。</t>
+  </si>
+  <si>
+    <t>infoEdit.jsp,EmployeeInfoMapper.xml,EmployeInfoServiceImpl.java</t>
+  </si>
+  <si>
+    <t>No.2、No.5</t>
+  </si>
+  <si>
+    <t>初期パスワードの長さチェック必要ではない。画面で、maxlength属性を利用してください。横展開要（郵便番号、電話番号）</t>
+  </si>
+  <si>
+    <t>employeeEdit.jsp</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>郵便番号、電話番号</t>
+  </si>
+  <si>
+    <t>No.5</t>
+  </si>
+  <si>
+    <t>パスワードは明文が必要。</t>
+  </si>
+  <si>
+    <t>EMSに別の機能があります。</t>
+  </si>
+  <si>
+    <t>削除する</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>表示した年齢、社齢が不正。Nullでよい。（NaN）</t>
+  </si>
+  <si>
+    <t>infoEdit.jsp</t>
+  </si>
+  <si>
+    <t>No.3、No.5</t>
+  </si>
+  <si>
+    <t>更新前と更新後のエビデンスとDBデータが必要。横展開要</t>
+  </si>
+  <si>
+    <t>エビデンスファイルに記入足りない</t>
+  </si>
+  <si>
+    <t>記入追加する</t>
+  </si>
+  <si>
+    <t>テストNo.５</t>
+  </si>
+  <si>
+    <t>No.4</t>
+  </si>
+  <si>
+    <t>⑦にNo.2にて登録された社員がはず。</t>
+  </si>
+  <si>
+    <t>総合テストに記入足りない</t>
+  </si>
+  <si>
+    <t>総合試験項目仕様書_社員機能.xlsx</t>
+  </si>
+  <si>
+    <t>No.4、No.5</t>
+  </si>
+  <si>
+    <t>ログイン画面のエビデンスが漏れ。</t>
+  </si>
+  <si>
+    <t>⑩に更新したい社員の検索が必要。</t>
+  </si>
+  <si>
+    <t>No.6</t>
+  </si>
+  <si>
+    <t>画面で表示した全項目はデータがあるはずです。</t>
+  </si>
+  <si>
+    <t>テストデータが漏れ</t>
+  </si>
+  <si>
+    <t>テストデータにデータを追加</t>
+  </si>
+  <si>
+    <t>テストデータ</t>
+  </si>
+  <si>
+    <t>contractに文字化け</t>
+  </si>
+  <si>
+    <t>データ編集</t>
+  </si>
+  <si>
+    <t>employeeに登録、毎回更新のデータが置いてください。</t>
+  </si>
+  <si>
+    <t>エラーメッセージの表示は区切ってください。</t>
+  </si>
+  <si>
+    <t>個人番号はDBに存在し、画面で表示しない。</t>
+  </si>
+  <si>
+    <t>EmployeInfoServiceImpl.java</t>
+  </si>
+  <si>
+    <t>生年月日、入社年月日範囲チェックが必要。</t>
+  </si>
+  <si>
+    <t>改善：
+①「登録完了」、「更新完了」メッセージは上に移動ください。
+②「全量検索」→「全件検索」</t>
+  </si>
+  <si>
+    <t>employeeInfoEdit.jsp,infoEdit.jsp</t>
+  </si>
+  <si>
+    <t>生年月日、入社年月日、郵便番号、電話番号、データなければ、記号が表示しないでください。</t>
+  </si>
+  <si>
+    <t>employeeInfoList.jsp</t>
+  </si>
+  <si>
+    <t>EMSM_総合テストエビデンス_給料自動作成機能.xlsx</t>
+  </si>
+  <si>
+    <t>画面で、一括作成したデータが正しいかどうか確認必要です。</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ダウンロードのケースを追加ください。</t>
+  </si>
+  <si>
+    <t>単体テストで確認済み</t>
     <rPh sb="0" eb="2">
-      <t>ソウゴウ</t>
+      <t>タンタイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <rPh sb="6" eb="9">
+      <t>カクニンズ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>総合テストに記入足りない</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>総合試験項目仕様書_社員機能.xlsx</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>総合試験項目仕様書_給料自動作成.xlsx</t>
+    <rPh sb="10" eb="12">
+      <t>キュウリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,13 +417,34 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -229,7 +456,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,51 +466,58 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCC1DA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.1498764000366222"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2DCDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14990691854609822"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14993743705557422"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD7E4BC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDBEEF4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -307,46 +541,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="thin">
         <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -381,26 +584,45 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -416,95 +638,137 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -562,7 +826,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -595,26 +859,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -647,23 +894,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -806,182 +1036,1267 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:X4"/>
+  <dimension ref="B2:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="K13" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="7.125" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="43.625" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="36" customWidth="1"/>
-    <col min="12" max="12" width="25.125" customWidth="1"/>
+    <col min="1" max="1" width="7.09765625" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" customWidth="1"/>
+    <col min="8" max="8" width="43.59765625" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="43.59765625" customWidth="1"/>
+    <col min="12" max="12" width="25.09765625" customWidth="1"/>
     <col min="13" max="13" width="34.5" customWidth="1"/>
-    <col min="18" max="18" width="5.25" customWidth="1"/>
-    <col min="19" max="19" width="21.875" customWidth="1"/>
-    <col min="23" max="23" width="20.625" customWidth="1"/>
+    <col min="14" max="14" width="37" customWidth="1"/>
+    <col min="17" max="17" width="10.19921875" customWidth="1"/>
+    <col min="18" max="18" width="5.19921875" customWidth="1"/>
+    <col min="19" max="19" width="21.8984375" customWidth="1"/>
+    <col min="23" max="23" width="20.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:24">
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="51"/>
+      <c r="T2" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="53"/>
+      <c r="V2" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2" s="36"/>
+    </row>
+    <row r="3" spans="2:24">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="18" t="s">
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="19"/>
-      <c r="T2" s="20" t="s">
+      <c r="O3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22" t="s">
+      <c r="R3" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="U3" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="1"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="42" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+    <row r="4" spans="2:24" ht="51" customHeight="1">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="4">
+        <v>45273</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+    </row>
+    <row r="5" spans="2:24" ht="36">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="4">
+        <v>45532</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="44">
+        <v>45532</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+    </row>
+    <row r="6" spans="2:24">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="4">
+        <v>45532</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="44">
+        <v>45532</v>
+      </c>
+      <c r="R6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+    </row>
+    <row r="7" spans="2:24" ht="36">
+      <c r="B7" s="5">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="4">
+        <v>45532</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="44">
+        <v>45532</v>
+      </c>
+      <c r="R7" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+    </row>
+    <row r="8" spans="2:24" ht="54">
+      <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="4">
+        <v>45532</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="44">
+        <v>45532</v>
+      </c>
+      <c r="R8" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="T8" s="13"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+    </row>
+    <row r="9" spans="2:24">
+      <c r="B9" s="5">
         <v>6</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="4">
+        <v>45532</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="44">
+        <v>45532</v>
+      </c>
+      <c r="R9" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+    </row>
+    <row r="10" spans="2:24">
+      <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="4">
+        <v>45532</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="44">
+        <v>45532</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+    </row>
+    <row r="11" spans="2:24" ht="36">
+      <c r="B11" s="5">
         <v>8</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="4">
+        <v>45532</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="44">
+        <v>45532</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="S11" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="T11" s="13"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+    </row>
+    <row r="12" spans="2:24">
+      <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="4">
+        <v>45532</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="44">
+        <v>45532</v>
+      </c>
+      <c r="R12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+    </row>
+    <row r="13" spans="2:24" ht="36">
+      <c r="B13" s="5">
         <v>10</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="4">
+        <v>45532</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="44">
+        <v>45532</v>
+      </c>
+      <c r="R13" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+    </row>
+    <row r="14" spans="2:24">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="4">
+        <v>45532</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="44">
+        <v>45532</v>
+      </c>
+      <c r="R14" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+    </row>
+    <row r="15" spans="2:24">
+      <c r="B15" s="5">
         <v>12</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="4">
+        <v>45532</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15" s="44">
+        <v>45532</v>
+      </c>
+      <c r="R15" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+    </row>
+    <row r="16" spans="2:24">
+      <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="C16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="4">
+        <v>45532</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="O16" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" s="44">
+        <v>45532</v>
+      </c>
+      <c r="R16" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+    </row>
+    <row r="17" spans="2:24" ht="36">
+      <c r="B17" s="5">
         <v>14</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="4">
+        <v>45533</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="13"/>
+      <c r="L17" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="N17" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" s="44">
+        <v>45532</v>
+      </c>
+      <c r="R17" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+    </row>
+    <row r="18" spans="2:24">
+      <c r="B18" s="5">
         <v>15</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="C18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="8">
+        <v>45533</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="13"/>
+      <c r="L18" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q18" s="44">
+        <v>45532</v>
+      </c>
+      <c r="R18" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+    </row>
+    <row r="19" spans="2:24">
+      <c r="B19" s="5">
         <v>16</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="C19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="8">
+        <v>45533</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q19" s="44">
+        <v>45532</v>
+      </c>
+      <c r="R19" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+    </row>
+    <row r="20" spans="2:24">
+      <c r="B20" s="5">
         <v>17</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="C20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="8">
+        <v>45533</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="13"/>
+      <c r="L20" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="O20" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q20" s="44">
+        <v>45532</v>
+      </c>
+      <c r="R20" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+    </row>
+    <row r="21" spans="2:24" ht="70.05" customHeight="1">
+      <c r="B21" s="5">
+        <v>18</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="8">
+        <v>45533</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="L21" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" s="44">
+        <v>45532</v>
+      </c>
+      <c r="R21" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+    </row>
+    <row r="22" spans="2:24" ht="46.05" customHeight="1">
+      <c r="B22" s="5">
         <v>19</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="C22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="8">
+        <v>45533</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="O22" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P22" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q22" s="44">
+        <v>45532</v>
+      </c>
+      <c r="R22" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+    </row>
+    <row r="23" spans="2:24" ht="36">
+      <c r="B23" s="5">
         <v>20</v>
       </c>
-      <c r="T3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="V3" s="23"/>
-      <c r="W3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>27</v>
+      <c r="C23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="8">
+        <v>45533</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="L23" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="M23" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="N23" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="O23" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P23" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q23" s="44">
+        <v>45533</v>
+      </c>
+      <c r="R23" s="19" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:24" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="24">
-        <v>1</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25" t="s">
+    <row r="24" spans="2:24">
+      <c r="B24" s="5">
+        <v>21</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="26">
-        <v>45273</v>
-      </c>
-      <c r="G4" s="25" t="s">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
+      <c r="F24" s="8">
+        <v>45533</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24" t="s">
+        <v>92</v>
+      </c>
+      <c r="L24" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="M24" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="N24" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="O24" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P24" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q24" s="44">
+        <v>45533</v>
+      </c>
+      <c r="R24" s="19" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -991,7 +2306,7 @@
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:V3"/>
   </mergeCells>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="B3">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -1022,9 +2337,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <sheetData/>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1035,9 +2350,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <sheetData/>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DOC/総合テスト/総合試験障害管理表.xlsx
+++ b/DOC/総合テスト/総合試験障害管理表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\総合テスト\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46832F9B-5079-49D2-A4A9-A06A88AF0F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -22,54 +16,54 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>単体/結合</t>
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>要対応/対応不要</t>
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>テスト仕様書ファイル名</t>
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>JSP/JAVAファイル名など</t>
         </r>
@@ -80,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="96">
   <si>
     <t>検出部門</t>
   </si>
@@ -194,7 +188,22 @@
     <t>No.2</t>
   </si>
   <si>
-    <t>「登録」ボタンをクリックし、在籍タイプと作成日/更新日の挿入が必要。</t>
+    <r>
+      <t xml:space="preserve">「登録」ボタンをクリックし、在籍タイプと作成日/更新日の挿入が必要。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2024/9/2追加
+在籍タイプ：個人事業が2です
+BPは9ですが、画面でどれですか？</t>
+    </r>
   </si>
   <si>
     <t>ソースコードが漏れ</t>
@@ -233,7 +242,21 @@
     <t>No.2、No.5</t>
   </si>
   <si>
-    <t>初期パスワードの長さチェック必要ではない。画面で、maxlength属性を利用してください。横展開要（郵便番号、電話番号）</t>
+    <r>
+      <t xml:space="preserve">初期パスワードの長さチェック必要ではない。画面で、maxlength属性を利用してください。横展開要（郵便番号、電話番号）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2024/9/2
+個人番号が漏れ</t>
+    </r>
   </si>
   <si>
     <t>employeeEdit.jsp</t>
@@ -335,7 +358,21 @@
     <t>EmployeInfoServiceImpl.java</t>
   </si>
   <si>
-    <t>生年月日、入社年月日範囲チェックが必要。</t>
+    <r>
+      <t xml:space="preserve">生年月日、入社年月日範囲チェックが必要。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2024/9/2
+範囲チェックがしないと、システムエラーが発生。（生年月日：システム日付-60～システム日付-20まで、入社年月日：システム日付-60～システム日付まで）</t>
+    </r>
   </si>
   <si>
     <t>改善：
@@ -358,105 +395,228 @@
     <t>画面で、一括作成したデータが正しいかどうか確認必要です。</t>
   </si>
   <si>
+    <t>ー</t>
+  </si>
+  <si>
+    <t>単体テストで確認済み</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
     <t>ダウンロードのケースを追加ください。</t>
   </si>
   <si>
-    <t>単体テストで確認済み</t>
-    <rPh sb="0" eb="2">
-      <t>タンタイ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>カクニンズ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ー</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>総合テストに記入足りない</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>総合試験項目仕様書_社員機能.xlsx</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>総合試験項目仕様書_給料自動作成.xlsx</t>
-    <rPh sb="10" eb="12">
-      <t>キュウリョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,19 +625,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCCC1DA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1498764000366222"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" tint="-0.149876400036622"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,13 +655,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14990691854609822"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14993743705557422"/>
+        <fgColor theme="0" tint="-0.149906918546098"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149937437055574"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,8 +677,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -638,27 +990,264 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -666,118 +1255,200 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1035,1268 +1706,1351 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K13" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="7.09765625" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" customWidth="1"/>
-    <col min="8" max="8" width="43.59765625" customWidth="1"/>
-    <col min="9" max="9" width="12.59765625" customWidth="1"/>
-    <col min="10" max="10" width="43.59765625" customWidth="1"/>
-    <col min="12" max="12" width="25.09765625" customWidth="1"/>
+    <col min="1" max="1" width="7.10185185185185" customWidth="1"/>
+    <col min="6" max="6" width="12.7037037037037" customWidth="1"/>
+    <col min="8" max="8" width="43.6018518518519" customWidth="1"/>
+    <col min="9" max="9" width="12.6018518518519" customWidth="1"/>
+    <col min="10" max="10" width="43.6018518518519" customWidth="1"/>
+    <col min="12" max="12" width="25.1018518518519" customWidth="1"/>
     <col min="13" max="13" width="34.5" customWidth="1"/>
     <col min="14" max="14" width="37" customWidth="1"/>
-    <col min="17" max="17" width="10.19921875" customWidth="1"/>
-    <col min="18" max="18" width="5.19921875" customWidth="1"/>
-    <col min="19" max="19" width="21.8984375" customWidth="1"/>
-    <col min="23" max="23" width="20.59765625" customWidth="1"/>
+    <col min="17" max="17" width="10.2037037037037" customWidth="1"/>
+    <col min="18" max="18" width="5.2037037037037" customWidth="1"/>
+    <col min="19" max="19" width="21.8981481481481" customWidth="1"/>
+    <col min="21" max="21" width="9.22222222222222"/>
+    <col min="23" max="23" width="20.6018518518519" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24">
-      <c r="B2" s="45" t="s">
+    <row r="2" ht="14.4" spans="2:24">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="47" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="50" t="s">
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="51"/>
-      <c r="T2" s="52" t="s">
+      <c r="S2" s="56"/>
+      <c r="T2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="53"/>
-      <c r="V2" s="54" t="s">
+      <c r="U2" s="58"/>
+      <c r="V2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="35" t="s">
+      <c r="W2" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="36"/>
+      <c r="X2" s="61"/>
     </row>
-    <row r="3" spans="2:24">
-      <c r="B3" s="1" t="s">
+    <row r="3" ht="14.4" spans="2:24">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="37" t="s">
+      <c r="Q3" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="38" t="s">
+      <c r="R3" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="39" t="s">
+      <c r="S3" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="40" t="s">
+      <c r="T3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="41" t="s">
+      <c r="U3" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="55"/>
-      <c r="W3" s="35" t="s">
+      <c r="V3" s="67"/>
+      <c r="W3" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="42" t="s">
+      <c r="X3" s="68" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:24" ht="51" customHeight="1">
-      <c r="B4" s="2">
+    <row r="4" ht="51" customHeight="1" spans="2:24">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="7">
         <v>45273</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
     </row>
-    <row r="5" spans="2:24" ht="36">
-      <c r="B5" s="5">
+    <row r="5" s="1" customFormat="1" ht="69" spans="2:24">
+      <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="10">
         <v>45532</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="17" t="s">
+      <c r="K5" s="28"/>
+      <c r="L5" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="44">
+      <c r="Q5" s="70">
         <v>45532</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="R5" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
     </row>
-    <row r="6" spans="2:24">
-      <c r="B6" s="2">
+    <row r="6" ht="14.4" spans="2:24">
+      <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="7">
         <v>45532</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="17" t="s">
+      <c r="K6" s="24"/>
+      <c r="L6" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="19" t="s">
+      <c r="P6" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="44">
+      <c r="Q6" s="72">
         <v>45532</v>
       </c>
-      <c r="R6" s="19" t="s">
+      <c r="R6" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="69">
+        <v>45537</v>
+      </c>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
     </row>
-    <row r="7" spans="2:24" ht="36">
-      <c r="B7" s="5">
+    <row r="7" ht="27.6" spans="2:24">
+      <c r="B7" s="13">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="7">
         <v>45532</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="G7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="17" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="19" t="s">
+      <c r="P7" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="44">
+      <c r="Q7" s="72">
         <v>45532</v>
       </c>
-      <c r="R7" s="19" t="s">
+      <c r="R7" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" s="69">
+        <v>45537</v>
+      </c>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
     </row>
-    <row r="8" spans="2:24" ht="54">
-      <c r="B8" s="2">
+    <row r="8" s="1" customFormat="1" ht="69" spans="2:24">
+      <c r="B8" s="14">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="10">
         <v>45532</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="17" t="s">
+      <c r="K8" s="28"/>
+      <c r="L8" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N8" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="P8" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="44">
+      <c r="Q8" s="70">
         <v>45532</v>
       </c>
-      <c r="R8" s="19" t="s">
+      <c r="R8" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="19" t="s">
+      <c r="S8" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="T8" s="13"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
     </row>
-    <row r="9" spans="2:24">
-      <c r="B9" s="5">
+    <row r="9" ht="27.6" spans="2:24">
+      <c r="B9" s="13">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="7">
         <v>45532</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="G9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="17" t="s">
+      <c r="K9" s="24"/>
+      <c r="L9" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="25" t="s">
+      <c r="M9" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="O9" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="19" t="s">
+      <c r="P9" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="44">
+      <c r="Q9" s="72">
         <v>45532</v>
       </c>
-      <c r="R9" s="19" t="s">
+      <c r="R9" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="U9" s="69">
+        <v>45537</v>
+      </c>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
     </row>
-    <row r="10" spans="2:24">
-      <c r="B10" s="2">
+    <row r="10" ht="27.6" spans="2:24">
+      <c r="B10" s="15">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="7">
         <v>45532</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="G10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="17" t="s">
+      <c r="K10" s="24"/>
+      <c r="L10" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="19" t="s">
+      <c r="N10" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="O10" s="19" t="s">
+      <c r="O10" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="19" t="s">
+      <c r="P10" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="44">
+      <c r="Q10" s="72">
         <v>45532</v>
       </c>
-      <c r="R10" s="19" t="s">
+      <c r="R10" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="U10" s="69">
+        <v>45537</v>
+      </c>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
     </row>
-    <row r="11" spans="2:24" ht="36">
-      <c r="B11" s="5">
+    <row r="11" ht="27.6" spans="2:24">
+      <c r="B11" s="13">
         <v>8</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="7">
         <v>45532</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="G11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="17" t="s">
+      <c r="K11" s="24"/>
+      <c r="L11" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="M11" s="25" t="s">
+      <c r="M11" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="N11" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="O11" s="19" t="s">
+      <c r="O11" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="P11" s="19" t="s">
+      <c r="P11" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="44">
+      <c r="Q11" s="72">
         <v>45532</v>
       </c>
-      <c r="R11" s="19" t="s">
+      <c r="R11" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="S11" s="19" t="s">
+      <c r="S11" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="T11" s="13"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
+      <c r="T11" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="U11" s="69">
+        <v>45537</v>
+      </c>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
     </row>
-    <row r="12" spans="2:24">
-      <c r="B12" s="2">
+    <row r="12" ht="14.4" spans="2:24">
+      <c r="B12" s="15">
         <v>9</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="7">
         <v>45532</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="6" t="s">
+      <c r="G12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="17" t="s">
+      <c r="K12" s="24"/>
+      <c r="L12" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="M12" s="25" t="s">
+      <c r="M12" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="O12" s="19" t="s">
+      <c r="O12" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="19" t="s">
+      <c r="P12" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q12" s="44">
+      <c r="Q12" s="72">
         <v>45532</v>
       </c>
-      <c r="R12" s="19" t="s">
+      <c r="R12" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="U12" s="69">
+        <v>45537</v>
+      </c>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
     </row>
-    <row r="13" spans="2:24" ht="36">
-      <c r="B13" s="5">
+    <row r="13" ht="27.6" spans="2:24">
+      <c r="B13" s="13">
         <v>10</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="7">
         <v>45532</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="G13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="17" t="s">
+      <c r="K13" s="24"/>
+      <c r="L13" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="M13" s="25" t="s">
+      <c r="M13" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="N13" s="13" t="s">
+      <c r="N13" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="O13" s="19" t="s">
+      <c r="O13" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="P13" s="19" t="s">
+      <c r="P13" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="44">
+      <c r="Q13" s="72">
         <v>45532</v>
       </c>
-      <c r="R13" s="19" t="s">
+      <c r="R13" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="U13" s="69">
+        <v>45537</v>
+      </c>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
     </row>
-    <row r="14" spans="2:24">
-      <c r="B14" s="2">
+    <row r="14" ht="14.4" spans="2:24">
+      <c r="B14" s="15">
         <v>11</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="7">
         <v>45532</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="G14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="17" t="s">
+      <c r="K14" s="24"/>
+      <c r="L14" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="25" t="s">
+      <c r="M14" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="N14" s="19" t="s">
+      <c r="N14" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="O14" s="19" t="s">
+      <c r="O14" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="P14" s="19" t="s">
+      <c r="P14" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q14" s="44">
+      <c r="Q14" s="72">
         <v>45532</v>
       </c>
-      <c r="R14" s="19" t="s">
+      <c r="R14" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="U14" s="69">
+        <v>45537</v>
+      </c>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
     </row>
-    <row r="15" spans="2:24">
-      <c r="B15" s="5">
+    <row r="15" ht="27.6" spans="2:24">
+      <c r="B15" s="13">
         <v>12</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="7">
         <v>45532</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="6" t="s">
+      <c r="G15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="J15" s="28" t="s">
+      <c r="J15" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="17" t="s">
+      <c r="K15" s="24"/>
+      <c r="L15" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="M15" s="25" t="s">
+      <c r="M15" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="N15" s="19" t="s">
+      <c r="N15" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="O15" s="19" t="s">
+      <c r="O15" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="P15" s="19" t="s">
+      <c r="P15" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q15" s="44">
+      <c r="Q15" s="72">
         <v>45532</v>
       </c>
-      <c r="R15" s="19" t="s">
+      <c r="R15" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="U15" s="69">
+        <v>45537</v>
+      </c>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
     </row>
-    <row r="16" spans="2:24">
-      <c r="B16" s="2">
+    <row r="16" ht="14.4" spans="2:24">
+      <c r="B16" s="15">
         <v>13</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="7">
         <v>45532</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="6" t="s">
+      <c r="G16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="25" t="s">
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="N16" s="19" t="s">
+      <c r="N16" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="O16" s="19" t="s">
+      <c r="O16" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="P16" s="19" t="s">
+      <c r="P16" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q16" s="44">
+      <c r="Q16" s="72">
         <v>45532</v>
       </c>
-      <c r="R16" s="19" t="s">
+      <c r="R16" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="U16" s="69">
+        <v>45537</v>
+      </c>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
     </row>
-    <row r="17" spans="2:24" ht="36">
-      <c r="B17" s="5">
+    <row r="17" ht="27.6" spans="2:24">
+      <c r="B17" s="13">
         <v>14</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="7">
         <v>45533</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="6" t="s">
+      <c r="G17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="17" t="s">
+      <c r="K17" s="24"/>
+      <c r="L17" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="M17" s="25" t="s">
+      <c r="M17" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="N17" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="O17" s="19" t="s">
+      <c r="N17" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="O17" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="P17" s="19" t="s">
+      <c r="P17" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q17" s="44">
+      <c r="Q17" s="72">
         <v>45532</v>
       </c>
-      <c r="R17" s="19" t="s">
+      <c r="R17" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="U17" s="69">
+        <v>45537</v>
+      </c>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
     </row>
-    <row r="18" spans="2:24">
-      <c r="B18" s="5">
+    <row r="18" ht="14.4" spans="2:24">
+      <c r="B18" s="13">
         <v>15</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="17">
         <v>45533</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="9" t="s">
+      <c r="G18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="J18" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="17" t="s">
+      <c r="K18" s="24"/>
+      <c r="L18" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="M18" s="17" t="s">
+      <c r="M18" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="19" t="s">
+      <c r="N18" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="O18" s="19" t="s">
+      <c r="O18" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="P18" s="19" t="s">
+      <c r="P18" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q18" s="44">
+      <c r="Q18" s="72">
         <v>45532</v>
       </c>
-      <c r="R18" s="19" t="s">
+      <c r="R18" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="U18" s="69">
+        <v>45537</v>
+      </c>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
     </row>
-    <row r="19" spans="2:24">
-      <c r="B19" s="5">
+    <row r="19" ht="14.4" spans="2:24">
+      <c r="B19" s="13">
         <v>16</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="17">
         <v>45533</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="9" t="s">
+      <c r="G19" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="17" t="s">
+      <c r="K19" s="24"/>
+      <c r="L19" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="M19" s="17" t="s">
+      <c r="M19" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="N19" s="19" t="s">
+      <c r="N19" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="O19" s="19" t="s">
+      <c r="O19" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="P19" s="19" t="s">
+      <c r="P19" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q19" s="44">
+      <c r="Q19" s="72">
         <v>45532</v>
       </c>
-      <c r="R19" s="19" t="s">
+      <c r="R19" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="U19" s="69">
+        <v>45537</v>
+      </c>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
     </row>
-    <row r="20" spans="2:24">
-      <c r="B20" s="5">
+    <row r="20" s="1" customFormat="1" ht="82.8" spans="2:24">
+      <c r="B20" s="8">
         <v>17</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="10">
         <v>45533</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="9" t="s">
+      <c r="G20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="I20" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="32" t="s">
+      <c r="J20" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="K20" s="13"/>
-      <c r="L20" s="17" t="s">
+      <c r="K20" s="28"/>
+      <c r="L20" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="M20" s="17" t="s">
+      <c r="M20" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="N20" s="19" t="s">
+      <c r="N20" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="O20" s="19" t="s">
+      <c r="O20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="P20" s="19" t="s">
+      <c r="P20" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="Q20" s="44">
+      <c r="Q20" s="70">
         <v>45532</v>
       </c>
-      <c r="R20" s="19" t="s">
+      <c r="R20" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
     </row>
-    <row r="21" spans="2:24" ht="70.05" customHeight="1">
-      <c r="B21" s="5">
+    <row r="21" ht="70.05" customHeight="1" spans="2:24">
+      <c r="B21" s="13">
         <v>18</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="17">
         <v>45533</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="9" t="s">
+      <c r="G21" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="I21" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="17" t="s">
+      <c r="K21" s="24"/>
+      <c r="L21" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="M21" s="17" t="s">
+      <c r="M21" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="N21" s="19" t="s">
+      <c r="N21" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="O21" s="19" t="s">
+      <c r="O21" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="P21" s="19" t="s">
+      <c r="P21" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q21" s="44">
+      <c r="Q21" s="72">
         <v>45532</v>
       </c>
-      <c r="R21" s="19" t="s">
+      <c r="R21" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="U21" s="69">
+        <v>45537</v>
+      </c>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
     </row>
-    <row r="22" spans="2:24" ht="46.05" customHeight="1">
-      <c r="B22" s="5">
+    <row r="22" ht="46.05" customHeight="1" spans="2:24">
+      <c r="B22" s="13">
         <v>19</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
+      <c r="D22" s="16"/>
+      <c r="E22" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="17">
         <v>45533</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="9" t="s">
+      <c r="G22" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="29" t="s">
+      <c r="I22" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="34" t="s">
+      <c r="J22" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="K22" s="13"/>
-      <c r="L22" s="17" t="s">
+      <c r="K22" s="24"/>
+      <c r="L22" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="M22" s="17" t="s">
+      <c r="M22" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="N22" s="19" t="s">
+      <c r="N22" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="O22" s="19" t="s">
+      <c r="O22" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="P22" s="19" t="s">
+      <c r="P22" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q22" s="44">
+      <c r="Q22" s="72">
         <v>45532</v>
       </c>
-      <c r="R22" s="19" t="s">
+      <c r="R22" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="U22" s="69">
+        <v>45537</v>
+      </c>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
     </row>
-    <row r="23" spans="2:24" ht="36">
-      <c r="B23" s="5">
+    <row r="23" ht="27.6" spans="2:24">
+      <c r="B23" s="13">
         <v>20</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="16"/>
+      <c r="E23" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="17">
         <v>45533</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="9" t="s">
+      <c r="G23" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="I23" s="29" t="s">
+      <c r="I23" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="J23" s="34" t="s">
+      <c r="J23" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="L23" s="57" t="s">
+      <c r="K23" s="49"/>
+      <c r="L23" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="M23" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="N23" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="O23" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="P23" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q23" s="72">
+        <v>45533</v>
+      </c>
+      <c r="R23" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="S23" s="49"/>
+      <c r="T23" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="U23" s="73">
+        <v>45537</v>
+      </c>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49"/>
+    </row>
+    <row r="24" ht="14.4" spans="2:24">
+      <c r="B24" s="13">
+        <v>21</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="17">
+        <v>45533</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="J24" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="M23" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="N23" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="O23" s="19" t="s">
+      <c r="K24" s="49"/>
+      <c r="L24" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="M24" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="N24" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="O24" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="P23" s="19" t="s">
+      <c r="P24" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q23" s="44">
+      <c r="Q24" s="72">
         <v>45533</v>
       </c>
-      <c r="R23" s="19" t="s">
+      <c r="R24" s="35" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="2:24">
-      <c r="B24" s="5">
-        <v>21</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="8">
-        <v>45533</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I24" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="J24" t="s">
-        <v>92</v>
-      </c>
-      <c r="L24" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="M24" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="N24" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="O24" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="P24" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q24" s="44">
-        <v>45533</v>
-      </c>
-      <c r="R24" s="19" t="s">
-        <v>43</v>
-      </c>
+      <c r="S24" s="49"/>
+      <c r="T24" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="U24" s="73">
+        <v>45537</v>
+      </c>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2306,7 +3060,6 @@
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:V3"/>
   </mergeCells>
-  <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="B3">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -2324,35 +3077,63 @@
         <cfvo type="max"/>
         <color rgb="FFFF555A"/>
       </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{782c8d4d-73ed-4e4f-9d43-f3d2da639d84}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{782c8d4d-73ed-4e4f-9d43-f3d2da639d84}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B3</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <sheetData/>
-  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <sheetData/>
-  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DOC/総合テスト/総合試験障害管理表.xlsx
+++ b/DOC/総合テスト/総合試験障害管理表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="103">
   <si>
     <t>検出部門</t>
   </si>
@@ -189,6 +189,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">「登録」ボタンをクリックし、在籍タイプと作成日/更新日の挿入が必要。
 </t>
     </r>
@@ -243,6 +250,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">初期パスワードの長さチェック必要ではない。画面で、maxlength属性を利用してください。横展開要（郵便番号、電話番号）
 </t>
     </r>
@@ -359,6 +373,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">生年月日、入社年月日範囲チェックが必要。
 </t>
     </r>
@@ -409,6 +430,28 @@
   <si>
     <t>総合試験項目仕様書_給料自動作成.xlsx</t>
   </si>
+  <si>
+    <t>総合試験項目仕様書_自動請求.xlsx</t>
+  </si>
+  <si>
+    <t>複数会社と2人以上のケースが漏れ。</t>
+  </si>
+  <si>
+    <t>画面確認のケースが漏れ。（計算結果が正しいか）</t>
+  </si>
+  <si>
+    <t>EMSM_総合テストエビデンス_自動請求.xlsx</t>
+  </si>
+  <si>
+    <t>テストデータに0以外のデータが作成くだしさい。</t>
+  </si>
+  <si>
+    <t>ダウンロードのファイルに「sample」シートを削除ください。
+workbook.removeSheetAt(templateSheetIndex);</t>
+  </si>
+  <si>
+    <t>2人以上の場合、請求書生成クリックして、システムエラーが発生した。</t>
+  </si>
 </sst>
 </file>
 
@@ -420,7 +463,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,15 +489,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="128"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,6 +507,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,6 +535,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -482,16 +550,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,7 +566,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,24 +589,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -544,11 +603,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -561,39 +627,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -679,187 +715,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,19 +1001,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -992,10 +1015,29 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,10 +1059,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1041,39 +1081,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1088,16 +1095,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1106,137 +1142,137 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1336,7 +1372,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1352,15 +1387,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1369,7 +1412,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1378,7 +1421,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1393,6 +1436,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1712,7 +1758,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:X24"/>
+  <dimension ref="B2:X29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1755,22 +1801,22 @@
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="55" t="s">
+      <c r="Q2" s="57"/>
+      <c r="R2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="56"/>
-      <c r="T2" s="57" t="s">
+      <c r="S2" s="59"/>
+      <c r="T2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="58"/>
-      <c r="V2" s="59" t="s">
+      <c r="U2" s="61"/>
+      <c r="V2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="60" t="s">
+      <c r="W2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="61"/>
+      <c r="X2" s="64"/>
     </row>
     <row r="3" ht="14.4" spans="2:24">
       <c r="B3" s="4" t="s">
@@ -1818,26 +1864,26 @@
       <c r="P3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="62" t="s">
+      <c r="Q3" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="63" t="s">
+      <c r="R3" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="64" t="s">
+      <c r="S3" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="65" t="s">
+      <c r="T3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="66" t="s">
+      <c r="U3" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="67"/>
-      <c r="W3" s="60" t="s">
+      <c r="V3" s="70"/>
+      <c r="W3" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="68" t="s">
+      <c r="X3" s="71" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1877,7 +1923,7 @@
       <c r="R4" s="24"/>
       <c r="S4" s="24"/>
       <c r="T4" s="24"/>
-      <c r="U4" s="69"/>
+      <c r="U4" s="72"/>
       <c r="V4" s="24"/>
       <c r="W4" s="24"/>
       <c r="X4" s="24"/>
@@ -1924,7 +1970,7 @@
       <c r="P5" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="70">
+      <c r="Q5" s="73">
         <v>45532</v>
       </c>
       <c r="R5" s="31" t="s">
@@ -1932,7 +1978,7 @@
       </c>
       <c r="S5" s="28"/>
       <c r="T5" s="28"/>
-      <c r="U5" s="71"/>
+      <c r="U5" s="74"/>
       <c r="V5" s="28"/>
       <c r="W5" s="28"/>
       <c r="X5" s="28"/>
@@ -1979,7 +2025,7 @@
       <c r="P6" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="72">
+      <c r="Q6" s="75">
         <v>45532</v>
       </c>
       <c r="R6" s="35" t="s">
@@ -1989,7 +2035,7 @@
       <c r="T6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="69">
+      <c r="U6" s="72">
         <v>45537</v>
       </c>
       <c r="V6" s="24"/>
@@ -2038,7 +2084,7 @@
       <c r="P7" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="72">
+      <c r="Q7" s="75">
         <v>45532</v>
       </c>
       <c r="R7" s="35" t="s">
@@ -2048,7 +2094,7 @@
       <c r="T7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="U7" s="69">
+      <c r="U7" s="72">
         <v>45537</v>
       </c>
       <c r="V7" s="24"/>
@@ -2097,7 +2143,7 @@
       <c r="P8" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="70">
+      <c r="Q8" s="73">
         <v>45532</v>
       </c>
       <c r="R8" s="31" t="s">
@@ -2107,7 +2153,7 @@
         <v>53</v>
       </c>
       <c r="T8" s="28"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="28"/>
       <c r="W8" s="28"/>
       <c r="X8" s="28"/>
@@ -2154,7 +2200,7 @@
       <c r="P9" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="72">
+      <c r="Q9" s="75">
         <v>45532</v>
       </c>
       <c r="R9" s="35" t="s">
@@ -2164,7 +2210,7 @@
       <c r="T9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="U9" s="69">
+      <c r="U9" s="72">
         <v>45537</v>
       </c>
       <c r="V9" s="24"/>
@@ -2213,7 +2259,7 @@
       <c r="P10" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="72">
+      <c r="Q10" s="75">
         <v>45532</v>
       </c>
       <c r="R10" s="35" t="s">
@@ -2223,7 +2269,7 @@
       <c r="T10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="U10" s="69">
+      <c r="U10" s="72">
         <v>45537</v>
       </c>
       <c r="V10" s="24"/>
@@ -2272,7 +2318,7 @@
       <c r="P11" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="72">
+      <c r="Q11" s="75">
         <v>45532</v>
       </c>
       <c r="R11" s="35" t="s">
@@ -2284,7 +2330,7 @@
       <c r="T11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="U11" s="69">
+      <c r="U11" s="72">
         <v>45537</v>
       </c>
       <c r="V11" s="24"/>
@@ -2333,7 +2379,7 @@
       <c r="P12" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q12" s="72">
+      <c r="Q12" s="75">
         <v>45532</v>
       </c>
       <c r="R12" s="35" t="s">
@@ -2343,7 +2389,7 @@
       <c r="T12" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="U12" s="69">
+      <c r="U12" s="72">
         <v>45537</v>
       </c>
       <c r="V12" s="24"/>
@@ -2392,7 +2438,7 @@
       <c r="P13" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="72">
+      <c r="Q13" s="75">
         <v>45532</v>
       </c>
       <c r="R13" s="35" t="s">
@@ -2402,7 +2448,7 @@
       <c r="T13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="U13" s="69">
+      <c r="U13" s="72">
         <v>45537</v>
       </c>
       <c r="V13" s="24"/>
@@ -2451,7 +2497,7 @@
       <c r="P14" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q14" s="72">
+      <c r="Q14" s="75">
         <v>45532</v>
       </c>
       <c r="R14" s="35" t="s">
@@ -2461,7 +2507,7 @@
       <c r="T14" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="U14" s="69">
+      <c r="U14" s="72">
         <v>45537</v>
       </c>
       <c r="V14" s="24"/>
@@ -2510,7 +2556,7 @@
       <c r="P15" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q15" s="72">
+      <c r="Q15" s="75">
         <v>45532</v>
       </c>
       <c r="R15" s="35" t="s">
@@ -2520,7 +2566,7 @@
       <c r="T15" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="U15" s="69">
+      <c r="U15" s="72">
         <v>45537</v>
       </c>
       <c r="V15" s="24"/>
@@ -2567,7 +2613,7 @@
       <c r="P16" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q16" s="72">
+      <c r="Q16" s="75">
         <v>45532</v>
       </c>
       <c r="R16" s="35" t="s">
@@ -2577,7 +2623,7 @@
       <c r="T16" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="U16" s="69">
+      <c r="U16" s="72">
         <v>45537</v>
       </c>
       <c r="V16" s="24"/>
@@ -2617,7 +2663,7 @@
       <c r="M17" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="N17" s="43" t="s">
+      <c r="N17" s="35" t="s">
         <v>69</v>
       </c>
       <c r="O17" s="35" t="s">
@@ -2626,7 +2672,7 @@
       <c r="P17" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q17" s="72">
+      <c r="Q17" s="75">
         <v>45532</v>
       </c>
       <c r="R17" s="35" t="s">
@@ -2636,7 +2682,7 @@
       <c r="T17" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="U17" s="69">
+      <c r="U17" s="72">
         <v>45537</v>
       </c>
       <c r="V17" s="24"/>
@@ -2666,7 +2712,7 @@
       <c r="I18" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="44" t="s">
+      <c r="J18" s="43" t="s">
         <v>81</v>
       </c>
       <c r="K18" s="24"/>
@@ -2685,7 +2731,7 @@
       <c r="P18" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q18" s="72">
+      <c r="Q18" s="75">
         <v>45532</v>
       </c>
       <c r="R18" s="35" t="s">
@@ -2695,7 +2741,7 @@
       <c r="T18" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="U18" s="69">
+      <c r="U18" s="72">
         <v>45537</v>
       </c>
       <c r="V18" s="24"/>
@@ -2744,7 +2790,7 @@
       <c r="P19" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q19" s="72">
+      <c r="Q19" s="75">
         <v>45532</v>
       </c>
       <c r="R19" s="35" t="s">
@@ -2754,7 +2800,7 @@
       <c r="T19" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="U19" s="69">
+      <c r="U19" s="72">
         <v>45537</v>
       </c>
       <c r="V19" s="24"/>
@@ -2784,7 +2830,7 @@
       <c r="I20" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="45" t="s">
+      <c r="J20" s="44" t="s">
         <v>84</v>
       </c>
       <c r="K20" s="28"/>
@@ -2803,7 +2849,7 @@
       <c r="P20" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="Q20" s="70">
+      <c r="Q20" s="73">
         <v>45532</v>
       </c>
       <c r="R20" s="31" t="s">
@@ -2811,7 +2857,7 @@
       </c>
       <c r="S20" s="28"/>
       <c r="T20" s="28"/>
-      <c r="U20" s="71"/>
+      <c r="U20" s="74"/>
       <c r="V20" s="28"/>
       <c r="W20" s="28"/>
       <c r="X20" s="28"/>
@@ -2839,7 +2885,7 @@
       <c r="I21" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="46" t="s">
+      <c r="J21" s="45" t="s">
         <v>85</v>
       </c>
       <c r="K21" s="24"/>
@@ -2858,7 +2904,7 @@
       <c r="P21" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q21" s="72">
+      <c r="Q21" s="75">
         <v>45532</v>
       </c>
       <c r="R21" s="35" t="s">
@@ -2868,7 +2914,7 @@
       <c r="T21" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="U21" s="69">
+      <c r="U21" s="72">
         <v>45537</v>
       </c>
       <c r="V21" s="24"/>
@@ -2898,7 +2944,7 @@
       <c r="I22" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="47" t="s">
+      <c r="J22" s="46" t="s">
         <v>87</v>
       </c>
       <c r="K22" s="24"/>
@@ -2917,7 +2963,7 @@
       <c r="P22" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q22" s="72">
+      <c r="Q22" s="75">
         <v>45532</v>
       </c>
       <c r="R22" s="35" t="s">
@@ -2927,7 +2973,7 @@
       <c r="T22" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="U22" s="69">
+      <c r="U22" s="72">
         <v>45537</v>
       </c>
       <c r="V22" s="24"/>
@@ -2957,17 +3003,17 @@
       <c r="I23" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="J23" s="48" t="s">
+      <c r="J23" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="K23" s="49"/>
-      <c r="L23" s="50" t="s">
+      <c r="K23" s="41"/>
+      <c r="L23" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="M23" s="50" t="s">
+      <c r="M23" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="N23" s="51" t="s">
+      <c r="N23" s="49" t="s">
         <v>91</v>
       </c>
       <c r="O23" s="35" t="s">
@@ -2976,22 +3022,22 @@
       <c r="P23" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q23" s="72">
+      <c r="Q23" s="75">
         <v>45533</v>
       </c>
       <c r="R23" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="S23" s="49"/>
+      <c r="S23" s="41"/>
       <c r="T23" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="U23" s="73">
+      <c r="U23" s="76">
         <v>45537</v>
       </c>
-      <c r="V23" s="49"/>
-      <c r="W23" s="49"/>
-      <c r="X23" s="49"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
     </row>
     <row r="24" ht="14.4" spans="2:24">
       <c r="B24" s="13">
@@ -3016,41 +3062,246 @@
       <c r="I24" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="J24" s="49" t="s">
+      <c r="J24" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="K24" s="49"/>
-      <c r="L24" s="52" t="s">
+      <c r="K24" s="50"/>
+      <c r="L24" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="35" t="s">
+      <c r="M24" s="52" t="s">
         <v>64</v>
       </c>
       <c r="N24" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="O24" s="35" t="s">
+      <c r="O24" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="P24" s="35" t="s">
+      <c r="P24" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="Q24" s="72">
+      <c r="Q24" s="77">
         <v>45533</v>
       </c>
-      <c r="R24" s="35" t="s">
+      <c r="R24" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="S24" s="49"/>
-      <c r="T24" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="U24" s="73">
+      <c r="S24" s="50"/>
+      <c r="T24" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="U24" s="79">
         <v>45537</v>
       </c>
-      <c r="V24" s="49"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="49"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+    </row>
+    <row r="25" customFormat="1" spans="2:24">
+      <c r="B25" s="8">
+        <v>22</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="10">
+        <v>45544</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J25" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+    </row>
+    <row r="26" ht="27.6" spans="2:24">
+      <c r="B26" s="8">
+        <v>23</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="10">
+        <v>45544</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
+    </row>
+    <row r="27" spans="2:24">
+      <c r="B27" s="8">
+        <v>24</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="10">
+        <v>45544</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="55"/>
+    </row>
+    <row r="28" ht="41.4" spans="2:24">
+      <c r="B28" s="8">
+        <v>25</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="10">
+        <v>45544</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+    </row>
+    <row r="29" ht="27.6" spans="2:24">
+      <c r="B29" s="8">
+        <v>26</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="10">
+        <v>45544</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3079,7 +3330,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{782c8d4d-73ed-4e4f-9d43-f3d2da639d84}</x14:id>
+          <x14:id>{496bce9a-44cb-48f8-bead-01722f77d307}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3091,7 +3342,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{782c8d4d-73ed-4e4f-9d43-f3d2da639d84}">
+          <x14:cfRule type="dataBar" id="{496bce9a-44cb-48f8-bead-01722f77d307}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
